--- a/Andrew-annotations/GIS_Q1_2015.xlsx
+++ b/Andrew-annotations/GIS_Q1_2015.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A92BA9-7FFB-4424-9190-ADB23BECFBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6397B19C-DBE8-4FE6-840C-BB3EAA231ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,7 +644,7 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -670,13 +670,13 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -728,7 +728,7 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -740,7 +740,7 @@
         <v>2</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -827,16 +827,16 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -859,13 +859,13 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -929,10 +929,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -987,19 +987,19 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -1028,7 +1028,7 @@
         <v>2</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -1054,13 +1054,13 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1092,7 +1092,7 @@
         <v>2</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -1124,7 +1124,7 @@
         <v>2</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -1147,16 +1147,16 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -1179,16 +1179,16 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -1284,7 +1284,7 @@
         <v>2</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -1339,16 +1339,16 @@
         <v>2</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24">
         <v>2</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>2</v>
